--- a/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigh\Desktop\서강\9학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D042C758-1092-495C-9997-1279691D3EED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296ED09C-CB8C-41E2-801C-4DC7B94CD0A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10" yWindow="0" windowWidth="8780" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -287,6 +287,207 @@
         <charset val="129"/>
       </rPr>
       <t>엄희애</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 17일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">새로운 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디어 구상</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 23일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 Target Application 아이디어 스케치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target Application Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 26일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">재설정된 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구체적 내용 생각</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 28일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기능, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -299,7 +500,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -368,6 +569,18 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -409,7 +622,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -456,6 +669,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -842,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -921,45 +1136,105 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="5"/>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D7" s="9">
+        <v>30</v>
+      </c>
+      <c r="E7" s="17">
+        <v>90</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>60</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>60</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>90</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigh\Desktop\서강\9학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296ED09C-CB8C-41E2-801C-4DC7B94CD0A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D554AC70-0086-4F8D-B034-95C98331C44E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="0" windowWidth="8780" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -489,6 +489,102 @@
       </rPr>
       <t>작성</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 27일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Node JS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Node JS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 1일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Spec 중 개인 취향 부분 아이디어 구상</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +596,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -578,6 +674,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -1055,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1217,48 +1319,84 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>180</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>180</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B13" s="6">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C13" s="6">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E13" s="18">
         <v>90</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="4"/>
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>60</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
@@ -1290,7 +1428,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="9"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
@@ -1306,7 +1444,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="9"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
@@ -1314,7 +1452,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="9"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
@@ -1324,13 +1462,13 @@
       <c r="E22" s="17"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
@@ -1433,24 +1571,40 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigh\Desktop\서강\9학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D554AC70-0086-4F8D-B034-95C98331C44E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CEEA50-0100-41BB-80E0-BC59DEC73183}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7550" yWindow="500" windowWidth="16580" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -585,6 +585,84 @@
   </si>
   <si>
     <t>Use Case Spec 중 개인 취향 부분 아이디어 구상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 4일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 5일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수업 시간표 추천 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Use Case Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 6일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업 시간표 추천 Use Case Spec 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +802,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -773,6 +851,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1160,7 +1239,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1398,29 +1477,65 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="4"/>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>60</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D16" s="9">
+        <v>20</v>
+      </c>
+      <c r="E16" s="17">
+        <v>100</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>40</v>
+      </c>
+      <c r="E17" s="17">
+        <v>200</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigh\Desktop\서강\9학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CEEA50-0100-41BB-80E0-BC59DEC73183}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C059B43-D49A-49AE-A9F6-78F770D5E268}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7550" yWindow="500" windowWidth="16580" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="280" windowWidth="16580" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -663,6 +663,36 @@
   </si>
   <si>
     <t>수업 시간표 추천 Use Case Spec 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 14일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 15일</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1238,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1537,21 +1567,45 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="4"/>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>180</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="D19" s="9">
+        <v>60</v>
+      </c>
+      <c r="E19" s="17">
+        <v>210</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigh\Desktop\서강\9학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C059B43-D49A-49AE-A9F6-78F770D5E268}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DF0C09-F913-48B5-854E-46440BA122CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="280" windowWidth="16580" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -693,6 +693,25 @@
       </rPr>
       <t>월 15일</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 23일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS 최종 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1268,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1607,13 +1626,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="19"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>210</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigh\Desktop\서강\9학기\융합소프트웨어종합설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeokJun\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DF0C09-F913-48B5-854E-46440BA122CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7CC3BD-B033-4F39-9CF8-F1CC9C576858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="280" windowWidth="16580" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -712,6 +712,100 @@
   </si>
   <si>
     <t>SRS 최종 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 27일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 29일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key entity class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence diagram 설계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">node JS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +817,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1288,19 +1382,19 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1312,10 +1406,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="11.85" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -1325,8 +1419,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1346,7 +1440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="14">
         <v>43714</v>
       </c>
@@ -1366,7 +1460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -1386,7 +1480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -1406,7 +1500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
@@ -1426,7 +1520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -1446,7 +1540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
@@ -1466,7 +1560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
@@ -1486,7 +1580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -1506,7 +1600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
         <v>25</v>
       </c>
@@ -1526,7 +1620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>27</v>
       </c>
@@ -1546,7 +1640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>28</v>
       </c>
@@ -1566,7 +1660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>30</v>
       </c>
@@ -1586,7 +1680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>32</v>
       </c>
@@ -1606,7 +1700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
@@ -1626,7 +1720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>34</v>
       </c>
@@ -1646,39 +1740,87 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1">
+      <c r="A21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D21" s="9">
+        <v>30</v>
+      </c>
+      <c r="E21" s="17">
+        <v>120</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>90</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="9">
+        <v>60</v>
+      </c>
+      <c r="E23" s="17">
+        <v>180</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1">
+      <c r="A24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D24" s="9">
+        <v>30</v>
+      </c>
+      <c r="E24" s="17">
+        <v>90</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1686,7 +1828,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1694,7 +1836,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1702,7 +1844,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1710,7 +1852,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1718,7 +1860,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1726,7 +1868,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1734,7 +1876,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1742,7 +1884,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1750,7 +1892,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1758,7 +1900,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1766,7 +1908,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1774,7 +1916,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="14"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1782,7 +1924,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="14"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1790,7 +1932,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1798,7 +1940,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1823,7 +1965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1840,7 +1982,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1857,7 +1999,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1874,7 +2016,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1891,7 +2033,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1908,7 +2050,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1925,10 +2067,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
@@ -1942,7 +2085,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1959,7 +2102,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1976,7 +2119,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1993,7 +2136,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2010,7 +2153,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2027,7 +2170,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2044,7 +2187,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2061,7 +2204,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeokJun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7CC3BD-B033-4F39-9CF8-F1CC9C576858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF82A94-EBD1-4CA6-AEEB-1C94A4F8D53C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -805,6 +805,66 @@
         <charset val="129"/>
       </rPr>
       <t>강의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 6일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entity class design &amp; table design </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 11일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key entity class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -817,7 +877,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1381,20 +1441,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1">
+    <row r="1" spans="1:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1406,10 +1466,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1">
+    <row r="2" spans="1:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="11.85" customHeight="1">
+    <row r="3" spans="1:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -1419,8 +1479,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5">
+    <row r="4" spans="1:6" ht="11.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43714</v>
       </c>
@@ -1460,7 +1520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -1480,7 +1540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -1500,7 +1560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
@@ -1520,7 +1580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -1540,7 +1600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
@@ -1560,7 +1620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
@@ -1580,7 +1640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -1600,7 +1660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>25</v>
       </c>
@@ -1620,7 +1680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>27</v>
       </c>
@@ -1640,7 +1700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>28</v>
       </c>
@@ -1660,7 +1720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>30</v>
       </c>
@@ -1680,7 +1740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>32</v>
       </c>
@@ -1700,7 +1760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
@@ -1720,7 +1780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>34</v>
       </c>
@@ -1740,7 +1800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>36</v>
       </c>
@@ -1760,7 +1820,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1780,7 +1840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>38</v>
       </c>
@@ -1800,7 +1860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1820,23 +1880,47 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
+    <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1.0208333333333333</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>90</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <v>120</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1844,7 +1928,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1852,7 +1936,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1860,7 +1944,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1868,7 +1952,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1876,7 +1960,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1884,7 +1968,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1892,7 +1976,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1900,7 +1984,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1908,7 +1992,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1916,7 +2000,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1924,7 +2008,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1932,7 +2016,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1940,7 +2024,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1965,7 +2049,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1982,7 +2066,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1999,7 +2083,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2016,7 +2100,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2033,7 +2117,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2050,7 +2134,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2067,7 +2151,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2085,7 +2169,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2102,7 +2186,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2119,7 +2203,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2136,7 +2220,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2153,7 +2237,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2170,7 +2254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2187,7 +2271,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2204,7 +2288,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF82A94-EBD1-4CA6-AEEB-1C94A4F8D53C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC0449E-FA94-4288-B09E-42256623581A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1550" yWindow="520" windowWidth="17640" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -866,6 +866,93 @@
       </rPr>
       <t>수정</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 18일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 24일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요람 정리 시작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Key class design </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백 받고 수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 29일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요람 정리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 1일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수행계획서 작성 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1441,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1920,37 +2007,85 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="4"/>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>60</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D28" s="9">
+        <v>20</v>
+      </c>
+      <c r="E28" s="17">
+        <v>70</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <v>60</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D30" s="9">
+        <v>30</v>
+      </c>
+      <c r="E30" s="17">
+        <v>60</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
@@ -2184,7 +2319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC0449E-FA94-4288-B09E-42256623581A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476FC25B-CCB3-40B0-944F-6B1ED6000BC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1550" yWindow="520" windowWidth="17640" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -953,6 +953,74 @@
   </si>
   <si>
     <t xml:space="preserve">수행계획서 작성 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 5일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천로직기획</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 6일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial data 재정리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월7일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sequence diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계, srs수정, class design 수정</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1528,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2087,29 +2155,65 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="4"/>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>90</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D32" s="9">
+        <v>90</v>
+      </c>
+      <c r="E32" s="17">
+        <v>180</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D33" s="9">
+        <v>120</v>
+      </c>
+      <c r="E33" s="17">
+        <v>240</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476FC25B-CCB3-40B0-944F-6B1ED6000BC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A10C47-F799-4C96-8BFB-465426803778}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -995,6 +995,21 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">sequence diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계, srs수정, class design 수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>12</t>
     </r>
     <r>
@@ -1004,23 +1019,27 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>월7일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sequence diagram </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설계, srs수정, class design 수정</t>
-    </r>
+      <t>월 7일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 9일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종결과보고서 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1596,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2197,7 +2216,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3">
         <v>0.66666666666666663</v>
@@ -2212,16 +2231,28 @@
         <v>240</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="4"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D34" s="9">
+        <v>30</v>
+      </c>
+      <c r="E34" s="17">
+        <v>120</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>

--- a/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
+++ b/PSP_Sheets/1_3_PSP_Sheet_엄희애.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brigh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A10C47-F799-4C96-8BFB-465426803778}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EC86AB-894D-47DA-8343-818A5A99CC7D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1024,6 +1024,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>최종결과보고서 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>12</t>
     </r>
@@ -1034,12 +1038,23 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
+      <t>월 8일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
       <t>월 9일</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종결과보고서 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1615,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2236,7 +2251,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="3">
         <v>0.79166666666666663</v>
@@ -2251,16 +2266,28 @@
         <v>120</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="4"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D35" s="9">
+        <v>60</v>
+      </c>
+      <c r="E35" s="17">
+        <v>360</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
